--- a/data/trans_orig/P36BPD11_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>276351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>253580</v>
+        <v>255105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>297672</v>
+        <v>300329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4789869352031403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4395190956806105</v>
+        <v>0.4421625960917389</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5159430073400335</v>
+        <v>0.5205484957276157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>700</v>
@@ -762,19 +762,19 @@
         <v>389918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>367527</v>
+        <v>366106</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>412931</v>
+        <v>413234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.475833267840946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4485085589345944</v>
+        <v>0.4467753418090661</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5039172804853952</v>
+        <v>0.5042875619913003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1040</v>
@@ -783,19 +783,19 @@
         <v>666268</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>635345</v>
+        <v>634090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>697004</v>
+        <v>697606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4771362729205751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4549912011723826</v>
+        <v>0.4540923149334178</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4991469392186183</v>
+        <v>0.49957833895904</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>197020</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176287</v>
+        <v>175148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>218923</v>
+        <v>218307</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3414866900157602</v>
+        <v>0.3414866900157601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.305550994715911</v>
+        <v>0.3035776116575278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.37945093329007</v>
+        <v>0.3783830742337534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>516</v>
@@ -833,19 +833,19 @@
         <v>303424</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>282863</v>
+        <v>282771</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>325274</v>
+        <v>328053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3702810293646632</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3451898519272872</v>
+        <v>0.3450779209246143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3969453704688091</v>
+        <v>0.400336707809204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>748</v>
@@ -854,19 +854,19 @@
         <v>500444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>472174</v>
+        <v>470738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531326</v>
+        <v>534483</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3583840325900634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3381390715810051</v>
+        <v>0.3371104430838944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3804997779829186</v>
+        <v>0.3827605520792478</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>103577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86819</v>
+        <v>85282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122340</v>
+        <v>121334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1795263747810997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1504789442362334</v>
+        <v>0.1478149911738424</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2120470994683555</v>
+        <v>0.2103035392124469</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>206</v>
@@ -904,19 +904,19 @@
         <v>126100</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110557</v>
+        <v>109383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144642</v>
+        <v>143342</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1538857027943908</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1349171498874229</v>
+        <v>0.1334848441289528</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1765132026550739</v>
+        <v>0.1749257854084317</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>323</v>
@@ -925,19 +925,19 @@
         <v>229678</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>203439</v>
+        <v>204526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254766</v>
+        <v>253770</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1644796944893614</v>
+        <v>0.1644796944893615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.145689476742459</v>
+        <v>0.1464678792209802</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1824462396917061</v>
+        <v>0.1817327646914922</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>947371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>894338</v>
+        <v>888125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1002513</v>
+        <v>999826</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.425236677912994</v>
+        <v>0.4252366779129939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4014323575321382</v>
+        <v>0.3986437357362153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.449987917639642</v>
+        <v>0.4487819417530375</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1421</v>
@@ -1050,19 +1050,19 @@
         <v>989195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>946410</v>
+        <v>942112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1032158</v>
+        <v>1031023</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4557481383753382</v>
+        <v>0.4557481383753381</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4360360686814507</v>
+        <v>0.4340558769946342</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4755421714496205</v>
+        <v>0.4750195952833083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2315</v>
@@ -1071,19 +1071,19 @@
         <v>1936565</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1869353</v>
+        <v>1867899</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2006199</v>
+        <v>2007390</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4402933805208386</v>
+        <v>0.4402933805208387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4250121387096075</v>
+        <v>0.4246815205071098</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4561252595073705</v>
+        <v>0.4563960453192117</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>851485</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>796237</v>
+        <v>798260</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>901891</v>
+        <v>905434</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3821975426453559</v>
+        <v>0.3821975426453558</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3573986804705599</v>
+        <v>0.3583067237961428</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4048225799866013</v>
+        <v>0.4064127946300468</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1052</v>
@@ -1121,19 +1121,19 @@
         <v>826065</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>786534</v>
+        <v>784521</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>870949</v>
+        <v>874598</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3805899787719157</v>
+        <v>0.3805899787719156</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3623769436235352</v>
+        <v>0.3614492557953976</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.401269179778199</v>
+        <v>0.4029503717597473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1785</v>
@@ -1142,19 +1142,19 @@
         <v>1677550</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1603805</v>
+        <v>1614202</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1739956</v>
+        <v>1747823</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3814042469197915</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3646376895240033</v>
+        <v>0.3670015424207785</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3955927043890405</v>
+        <v>0.3973813428721322</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>429011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>388306</v>
+        <v>384399</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>475770</v>
+        <v>476442</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1925657794416502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.174294928950068</v>
+        <v>0.1725410464362799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2135539761016498</v>
+        <v>0.2138556257735791</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>447</v>
@@ -1192,19 +1192,19 @@
         <v>355226</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>321221</v>
+        <v>322897</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>388524</v>
+        <v>389827</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1636618828527462</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1479950177891928</v>
+        <v>0.1487669511590426</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1790030888154582</v>
+        <v>0.1796036949412104</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>810</v>
@@ -1213,19 +1213,19 @@
         <v>784237</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>730644</v>
+        <v>731745</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>844049</v>
+        <v>843918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1783023725593699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1661176259722306</v>
+        <v>0.1663679128562343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1919012619187223</v>
+        <v>0.1918713037734691</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>391190</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>364243</v>
+        <v>363872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>417689</v>
+        <v>418603</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5497428829960657</v>
+        <v>0.5497428829960654</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5118742083498244</v>
+        <v>0.5113526821118997</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5869820182603973</v>
+        <v>0.5882665377906499</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>620</v>
@@ -1338,19 +1338,19 @@
         <v>437584</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>414579</v>
+        <v>412931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>462573</v>
+        <v>460613</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5970910474952454</v>
+        <v>0.5970910474952456</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5657006470970725</v>
+        <v>0.563451381360648</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6311893189126121</v>
+        <v>0.6285145272739096</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1003</v>
@@ -1359,19 +1359,19 @@
         <v>828774</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>790746</v>
+        <v>790942</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>869272</v>
+        <v>864656</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.573765624307274</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5474384393138583</v>
+        <v>0.5475744758990071</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6018024588929052</v>
+        <v>0.5986069526223209</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>231100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>203500</v>
+        <v>207795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>259368</v>
+        <v>259021</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3247677108262356</v>
+        <v>0.3247677108262355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2859798744165225</v>
+        <v>0.2920160617321557</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3644917827856622</v>
+        <v>0.364004087770742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>274</v>
@@ -1409,19 +1409,19 @@
         <v>211123</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>190101</v>
+        <v>188496</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232504</v>
+        <v>232379</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2880808145224976</v>
+        <v>0.2880808145224977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2593965269138129</v>
+        <v>0.2572056379790463</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3172557471063889</v>
+        <v>0.3170853608888946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>488</v>
@@ -1430,19 +1430,19 @@
         <v>442223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>405799</v>
+        <v>408847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>479668</v>
+        <v>478934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3061541103046972</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2809375833064703</v>
+        <v>0.2830471011482426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3320772959477053</v>
+        <v>0.3315688941861753</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>89297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70055</v>
+        <v>70414</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112340</v>
+        <v>112660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1254894061776989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09844833783214582</v>
+        <v>0.09895389846050855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1578728048337946</v>
+        <v>0.1583224166863033</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1480,19 +1480,19 @@
         <v>84153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69471</v>
+        <v>68822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101408</v>
+        <v>100560</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.114828137982257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09479476923671709</v>
+        <v>0.09390916669318811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1383730103314018</v>
+        <v>0.1372164989479791</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>191</v>
@@ -1501,19 +1501,19 @@
         <v>173450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146856</v>
+        <v>147717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>199681</v>
+        <v>198981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.120080265388029</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1016693069416325</v>
+        <v>0.1022657041217769</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1382407711163771</v>
+        <v>0.1377555653353103</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>1614911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1550220</v>
+        <v>1547248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1679990</v>
+        <v>1674619</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4592510253902787</v>
+        <v>0.4592510253902788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4408540731055428</v>
+        <v>0.4400089633051794</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4777581927310076</v>
+        <v>0.4762306849847064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2741</v>
@@ -1626,19 +1626,19 @@
         <v>1816696</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1758978</v>
+        <v>1765456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1867137</v>
+        <v>1870240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4879936460650294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4724895304250424</v>
+        <v>0.4742295830608665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5015427970809737</v>
+        <v>0.5023763973893102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4358</v>
@@ -1647,19 +1647,19 @@
         <v>3431608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3344852</v>
+        <v>3346482</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3520747</v>
+        <v>3506365</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4740320533101253</v>
+        <v>0.4740320533101252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4620478548849266</v>
+        <v>0.4622729909137808</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4863454582824755</v>
+        <v>0.4843587786334707</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>1279606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1211793</v>
+        <v>1216468</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1342942</v>
+        <v>1338469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3638963409158812</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3446116276307097</v>
+        <v>0.3459411604710641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3819080515669122</v>
+        <v>0.3806360094807467</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1842</v>
@@ -1697,19 +1697,19 @@
         <v>1340612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1292758</v>
+        <v>1291231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1395743</v>
+        <v>1393596</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3601096641486978</v>
+        <v>0.3601096641486979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3472554182169882</v>
+        <v>0.3468453252691714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3749188872857486</v>
+        <v>0.3743420717936038</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3021</v>
@@ -1718,19 +1718,19 @@
         <v>2620218</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2527631</v>
+        <v>2543599</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2702535</v>
+        <v>2701344</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3619490245715389</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3491593960867911</v>
+        <v>0.3513651489132383</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3733200825420538</v>
+        <v>0.3731555974720668</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>621885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>570525</v>
+        <v>568346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>674594</v>
+        <v>675048</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.17685263369384</v>
+        <v>0.1768526336938401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1622468918770253</v>
+        <v>0.1616271202989935</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1918421489519834</v>
+        <v>0.1919711694914104</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>760</v>
@@ -1768,19 +1768,19 @@
         <v>565479</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>521570</v>
+        <v>527279</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>605662</v>
+        <v>608519</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1518966897862727</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1401020406977655</v>
+        <v>0.1416356471232291</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1626905155990973</v>
+        <v>0.1634577892990842</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1324</v>
@@ -1789,19 +1789,19 @@
         <v>1187364</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1128313</v>
+        <v>1119024</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1255928</v>
+        <v>1254380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1640189221183358</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1558617996576794</v>
+        <v>0.1545786429315756</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.173490115374017</v>
+        <v>0.173276288847496</v>
       </c>
     </row>
     <row r="19">
